--- a/data/trans_camb/P17G_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P17G_R2-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.4485028330217845</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.04963089438799629</v>
+        <v>-0.0496308943879962</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.05753152429120245</v>
@@ -664,7 +664,7 @@
         <v>0.2834622338489499</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.1431085689019769</v>
+        <v>-0.143108568901977</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.567928392780883</v>
+        <v>-0.5617761087526925</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6592290107086916</v>
+        <v>-0.6013526815022548</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8652617937714445</v>
+        <v>-0.919735115082688</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6591857890992521</v>
+        <v>-0.7919486697441055</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.3983762942235918</v>
+        <v>-0.4017289845103926</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7966622354728817</v>
+        <v>-0.7857857560802926</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4624794600626367</v>
+        <v>-0.5000624379246572</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2979130381948308</v>
+        <v>-0.3055293567090029</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.6100010428668515</v>
+        <v>-0.7007995686776752</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8670529322528899</v>
+        <v>0.8561947323761371</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9666773021849888</v>
+        <v>1.033849477677938</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3230908204919429</v>
+        <v>0.320051438525562</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6942090682541099</v>
+        <v>0.6865578129715852</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.495495159944857</v>
+        <v>1.402817325245024</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5805163915999438</v>
+        <v>0.5692523991776687</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5669661631567846</v>
+        <v>0.5100954178456132</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9603745513462835</v>
+        <v>0.9032141684226894</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3397256252621917</v>
+        <v>0.2894343071958065</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.5931528124031374</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.06563772270953126</v>
+        <v>-0.06563772270953115</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.08148960236503031</v>
@@ -769,7 +769,7 @@
         <v>0.4015055225190065</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2027038309609664</v>
+        <v>-0.2027038309609667</v>
       </c>
     </row>
     <row r="8">
@@ -780,29 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.663400300988637</v>
+        <v>-0.6510781799587883</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7769975934419516</v>
-      </c>
-      <c r="E8" s="6" t="inlineStr"/>
+        <v>-0.7588312184824668</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.9379194210720456</v>
+      </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6247670439864107</v>
+        <v>-0.6377300078936322</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4651916298823828</v>
+        <v>-0.4258215141627121</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.733986774359322</v>
+        <v>-0.6985421895875006</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4728303134274801</v>
+        <v>-0.5067506513154172</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3715334969619503</v>
+        <v>-0.3847072533111828</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6443403506300689</v>
+        <v>-0.6863631333014305</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.296946317098318</v>
+        <v>2.430242737797896</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.158960957844412</v>
-      </c>
-      <c r="E9" s="6" t="inlineStr"/>
+        <v>4.079893856033705</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.149014309695879</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>1.868787203128869</v>
+        <v>1.685595280358612</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.405953549188755</v>
+        <v>3.287192738596689</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.39328187628432</v>
+        <v>1.381718936791522</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.193340002896506</v>
+        <v>1.090359008252787</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.010574790212318</v>
+        <v>1.777839190883254</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.756561766509445</v>
+        <v>0.6489496948978294</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +860,7 @@
         <v>0.3813722525160556</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2287708464401954</v>
+        <v>0.2287708464401952</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.8196333114531906</v>
@@ -874,7 +878,7 @@
         <v>0.1532977033682426</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1817231451338601</v>
+        <v>0.1817231451338597</v>
       </c>
     </row>
     <row r="11">
@@ -885,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.785047386793292</v>
+        <v>-0.7935976980130978</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3785128937584677</v>
+        <v>-0.4510501789406961</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4714397343136038</v>
+        <v>-0.563177897329621</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.576176430397304</v>
+        <v>-1.711216545423772</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9392772675295707</v>
+        <v>-0.9657929168867097</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7677105524212424</v>
+        <v>-0.7817242785606002</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.001687923326529</v>
+        <v>-0.9142260085328886</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4840217273763947</v>
+        <v>-0.4109295819363076</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.3636411026980454</v>
+        <v>-0.3957388152014478</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7688817425309959</v>
+        <v>0.7401191087253902</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.191879363289579</v>
+        <v>1.123418771702268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.109170144829497</v>
+        <v>1.02824619325112</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.04311826559626837</v>
+        <v>-0.05890589895954694</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8612070871702739</v>
+        <v>0.8348463963791648</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8399245242214278</v>
+        <v>0.886450083016903</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1245971959607194</v>
+        <v>0.1334533552001583</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7426454325075351</v>
+        <v>0.7717290209509476</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7264510192438509</v>
+        <v>0.7881314529710829</v>
       </c>
     </row>
     <row r="13">
@@ -961,7 +965,7 @@
         <v>0.3063430970168399</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1837636827097244</v>
+        <v>0.1837636827097243</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.5081333652257068</v>
@@ -979,7 +983,7 @@
         <v>0.1077164639876932</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1276899404782399</v>
+        <v>0.1276899404782397</v>
       </c>
     </row>
     <row r="14">
@@ -990,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5029942104536018</v>
+        <v>-0.4944081303370545</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.24933034700981</v>
+        <v>-0.2864866534243593</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3067451862257405</v>
+        <v>-0.3712478935615636</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7527574271547846</v>
+        <v>-0.7746731746725422</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4641459340993473</v>
+        <v>-0.4433489897202198</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3667102946020832</v>
+        <v>-0.3593052595460186</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5675023552359685</v>
+        <v>-0.5375199241342067</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2776639138997861</v>
+        <v>-0.2424712166301161</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2158157527037838</v>
+        <v>-0.2231711214489192</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9075694601162428</v>
+        <v>0.8140170415831839</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.411544956112705</v>
+        <v>1.258133220205907</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.295794265050093</v>
+        <v>1.158824802201944</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.08608695397584816</v>
+        <v>-0.002935724644552808</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.762450276627252</v>
+        <v>0.7696778997346144</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7158682063529956</v>
+        <v>0.7464878732863675</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1016190314618796</v>
+        <v>0.1388488259138839</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6607122571762595</v>
+        <v>0.6754931229563201</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6745590860473399</v>
+        <v>0.7382036421916495</v>
       </c>
     </row>
     <row r="16">
@@ -1070,7 +1074,7 @@
         <v>0.713535072260349</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6754682631727204</v>
+        <v>0.6754682631727189</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.1535508045996864</v>
@@ -1088,7 +1092,7 @@
         <v>0.4535193767436982</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.114890447546429</v>
+        <v>1.114890447546427</v>
       </c>
     </row>
     <row r="17">
@@ -1099,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.006611082712687</v>
+        <v>-3.087962834211893</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.719681988236453</v>
+        <v>-1.541317614736075</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.804027695610734</v>
+        <v>-1.722618307057303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.592163089442075</v>
+        <v>-2.747262209301276</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.393682454314441</v>
+        <v>-2.575799316055052</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.219826786768378</v>
+        <v>-1.178087557491639</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.984334257942481</v>
+        <v>-2.011854966748009</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.283730602190009</v>
+        <v>-1.319570994981775</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.6041383972221828</v>
+        <v>-0.443290449432731</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.26462372404111</v>
+        <v>1.241157558381966</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.342374298228719</v>
+        <v>3.276113691807875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.806302530786979</v>
+        <v>2.829291884769446</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.822205143253137</v>
+        <v>2.96727490408652</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.800320599173265</v>
+        <v>2.636850593963684</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.668493898004308</v>
+        <v>3.767986574298457</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.48361398201808</v>
+        <v>1.450966831668083</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.312916942258449</v>
+        <v>2.2481745476569</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.547428280691012</v>
+        <v>2.781175950734124</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1179,7 @@
         <v>0.2089062844046559</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1977612181636284</v>
+        <v>0.197761218163628</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.03727670790717932</v>
@@ -1193,7 +1197,7 @@
         <v>0.1212059839870376</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2979616763077837</v>
+        <v>0.2979616763077831</v>
       </c>
     </row>
     <row r="20">
@@ -1204,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6776047471234216</v>
+        <v>-0.6978826611826068</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3713074399830784</v>
+        <v>-0.3656502815400842</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3983635686088534</v>
+        <v>-0.4030717286923545</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4990402731952253</v>
+        <v>-0.5056789915666322</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4439343695826123</v>
+        <v>-0.4738489042118331</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2243126610199059</v>
+        <v>-0.2312611137130939</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4516944393947874</v>
+        <v>-0.4577904484352634</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2984650804760352</v>
+        <v>-0.288026202376263</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1440104558616164</v>
+        <v>-0.1155224408505848</v>
       </c>
     </row>
     <row r="21">
@@ -1239,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5934517324677795</v>
+        <v>0.5239935626271869</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.452837301759041</v>
+        <v>1.408210114645021</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.251410051724104</v>
+        <v>1.17642779467724</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.021327777539205</v>
+        <v>1.095742140668714</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.037201539331572</v>
+        <v>0.9242186634651747</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.313953072121959</v>
+        <v>1.529558469083153</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5527497504663744</v>
+        <v>0.5172602474178628</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7889898058479364</v>
+        <v>0.7735826300188074</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8358936800177159</v>
+        <v>0.9933858164895936</v>
       </c>
     </row>
     <row r="22">
@@ -1302,7 +1306,7 @@
         <v>0.3169592770040575</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.524431276255951</v>
+        <v>0.5244312762559513</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7288591360848721</v>
+        <v>-0.7403456777466221</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2817320727735038</v>
+        <v>-0.2814076263541333</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.2774473990682056</v>
+        <v>-0.2280933146437289</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.026203831252521</v>
+        <v>-0.970501526803452</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.41099967832473</v>
+        <v>-0.4554178729802296</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05493048408181503</v>
+        <v>-0.003644529601822138</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.727139116884141</v>
+        <v>-0.6878907555368408</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.1748589480872923</v>
+        <v>-0.163486294184152</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1010172395408785</v>
+        <v>0.08781700606889567</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.517153287576618</v>
+        <v>0.4432099307858521</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.068697748619276</v>
+        <v>1.058451997089688</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.029696300418142</v>
+        <v>1.045711615711856</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1647503245085331</v>
+        <v>0.2021887084663458</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8582368868212715</v>
+        <v>0.8823848711804751</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.340384112368461</v>
+        <v>1.262468400243933</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1369212700632086</v>
+        <v>0.1610072780255437</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8035518765591644</v>
+        <v>0.7986320844312271</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.000931752079007</v>
+        <v>0.9940229305561951</v>
       </c>
     </row>
     <row r="25">
@@ -1407,7 +1411,7 @@
         <v>0.207344237765994</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3430655327830823</v>
+        <v>0.3430655327830825</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4413646422860548</v>
+        <v>-0.4271411738982264</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1635085071078912</v>
+        <v>-0.1645368460461253</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1782640384013253</v>
+        <v>-0.1383195682886305</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5092123191594443</v>
+        <v>-0.5184930456866679</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2078038877272406</v>
+        <v>-0.2431514608141742</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01837185152126881</v>
+        <v>-0.004888083563774444</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4092488509164944</v>
+        <v>-0.3918842507782538</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1002903769</v>
+        <v>-0.09077701793337196</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.04833983641622577</v>
+        <v>0.04494575197659</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4785834619378528</v>
+        <v>0.4141092037473146</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9280325092371932</v>
+        <v>0.9636096288991197</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9004072168787712</v>
+        <v>0.94092425898258</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1344167841053057</v>
+        <v>0.1643846319857564</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.630153903355869</v>
+        <v>0.6929047793999367</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.004487239565835</v>
+        <v>0.9771908145743706</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1155121325964752</v>
+        <v>0.1245128074874083</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6136656594378059</v>
+        <v>0.622589139048268</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7582558402422146</v>
+        <v>0.7486154455368332</v>
       </c>
     </row>
     <row r="28">
